--- a/Code/gradient_data.xlsx
+++ b/Code/gradient_data.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.0001502369679241021</v>
+        <v>-0.0001459633702114579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5324055972053634</v>
+        <v>0.5173287776140928</v>
       </c>
     </row>
     <row r="3">
@@ -499,12 +499,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>-0.0001492728299989256</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5347596691899896</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,12 +518,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>-0.0001086089172515763</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4387283619992805</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -546,10 +538,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-5.882736734213921e-05</v>
+        <v>-5.552463176209692e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1709747739164919</v>
+        <v>0.1353332545345313</v>
       </c>
     </row>
     <row r="6">
@@ -568,12 +560,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>-3.861068848263166e-05</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1211145324513576</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -591,12 +579,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>-5.859950516749925e-05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1699740656239034</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,10 +599,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.088134161498851e-05</v>
+        <v>-7.281748096588701e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0348586823682188</v>
+        <v>0.02324274983627396</v>
       </c>
     </row>
     <row r="9">
@@ -637,12 +621,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>-6.63407691007162e-06</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02402547820695797</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -660,12 +640,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>-1.034011681498376e-05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03192080256976704</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,10 +660,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.0001203179302477003</v>
+        <v>-0.0001170974282543335</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3417683079280444</v>
+        <v>0.3262495076281096</v>
       </c>
     </row>
     <row r="12">
@@ -706,12 +682,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>-0.0001092915344222812</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3212491555187156</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -729,12 +701,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>-9.452103092424622e-05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2888360733697184</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -753,10 +721,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.495993298978217e-05</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04267012413593718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -814,10 +782,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.850733209214809e-08</v>
+        <v>2.128934193765376e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.529647423817918e-05</v>
+        <v>-0.0002515265587626612</v>
       </c>
     </row>
     <row r="18">
@@ -836,12 +804,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2.001357557080538e-07</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.0001637440484844224</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -859,12 +823,8 @@
           <t>Traverse 3</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>-1.740884280629108e-08</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0001190226308516384</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Code/gradient_data.xlsx
+++ b/Code/gradient_data.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-5.552463176209692e-05</v>
+        <v>-5.552463176209691e-05</v>
       </c>
       <c r="E5" t="n">
         <v>0.1353332545345313</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-7.281748096588701e-06</v>
+        <v>-7.281748096588699e-06</v>
       </c>
       <c r="E8" t="n">
         <v>0.02324274983627396</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.128934193765376e-08</v>
+        <v>2.128934193765377e-08</v>
       </c>
       <c r="E17" t="n">
         <v>-0.0002515265587626612</v>
